--- a/entry_data.xlsx
+++ b/entry_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,6 +2255,60 @@
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024-12-18 16:51:30</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>static/captured_images\entry_20241218_165123.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>180호 3682</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2024-12-19 16:18:24</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>static/captured_images\entry_20241219_161816.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>180호 3682</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-12-19 16:21:28</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>static/captured_images\entry_20241219_162121.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
